--- a/documentation/Requirements_Stack.xlsx
+++ b/documentation/Requirements_Stack.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Req ID</t>
   </si>
@@ -76,7 +76,7 @@
     <t>Display Google Map centered on user location</t>
   </si>
   <si>
-    <t>Fetch nearby restaurants from restaurant API</t>
+    <t>Fetch nearby restaurants from Google Maps API</t>
   </si>
   <si>
     <t>Display restaurant markers on map</t>
@@ -85,70 +85,73 @@
     <t>Show restaurant info popup (name, rating, cuisine)</t>
   </si>
   <si>
+    <t>Basic Supabase project setup (DB + config)</t>
+  </si>
+  <si>
+    <t>Add deals functionality</t>
+  </si>
+  <si>
+    <t>Error handling for failed API calls</t>
+  </si>
+  <si>
+    <t>Display deals in restaurant popup</t>
+  </si>
+  <si>
+    <t>Search restaurants by name</t>
+  </si>
+  <si>
+    <t>User sign up and login</t>
+  </si>
+  <si>
+    <t>Display restaurants with deals by using custom marker</t>
+  </si>
+  <si>
+    <t>Implement a side bar with list of restaurants</t>
+  </si>
+  <si>
+    <t>Sort by restaurants by distance</t>
+  </si>
+  <si>
+    <t>Ensure restaurants that have deals are on the top of list view</t>
+  </si>
+  <si>
+    <t>View list of saved favorite restaurants</t>
+  </si>
+  <si>
+    <t>Save restaurant as favorite</t>
+  </si>
+  <si>
+    <t>User profile page (view saved data)</t>
+  </si>
+  <si>
+    <t>Persist favorites in Supabase database</t>
+  </si>
+  <si>
+    <t>Filter restaurants by cuisine</t>
+  </si>
+  <si>
+    <t>Filter restaurants by distance</t>
+  </si>
+  <si>
+    <t>Filter restaurants by price range</t>
+  </si>
+  <si>
+    <t>Filter restaurants by rating</t>
+  </si>
+  <si>
+    <t>Responsive layout for mobile and desktop</t>
+  </si>
+  <si>
+    <t>Loading indicators while fetching data</t>
+  </si>
+  <si>
+    <t>Persist selected filters during session</t>
+  </si>
+  <si>
+    <t>Final UI polish and usability improvements</t>
+  </si>
+  <si>
     <t>Integrate deals API with restaurant data</t>
-  </si>
-  <si>
-    <t>Error handling for failed API calls</t>
-  </si>
-  <si>
-    <t>Display deals in restaurant popup</t>
-  </si>
-  <si>
-    <t>Basic Supabase project setup (DB + config)</t>
-  </si>
-  <si>
-    <t>User sign up and login</t>
-  </si>
-  <si>
-    <t>Display restaurants with deals by using custom marker</t>
-  </si>
-  <si>
-    <t>Implement a side bar with list of restaurants</t>
-  </si>
-  <si>
-    <t>Sort by restaurants by distance</t>
-  </si>
-  <si>
-    <t>Ensure restaurants that have deals are on the top of list view</t>
-  </si>
-  <si>
-    <t>View list of saved favorite restaurants</t>
-  </si>
-  <si>
-    <t>Save restaurant as favorite</t>
-  </si>
-  <si>
-    <t>User profile page (view saved data)</t>
-  </si>
-  <si>
-    <t>Persist favorites in Supabase database</t>
-  </si>
-  <si>
-    <t>Filter restaurants by cuisine</t>
-  </si>
-  <si>
-    <t>Filter restaurants by distance</t>
-  </si>
-  <si>
-    <t>Filter restaurants by price range</t>
-  </si>
-  <si>
-    <t>Filter restaurants by rating</t>
-  </si>
-  <si>
-    <t>Search restaurants by name</t>
-  </si>
-  <si>
-    <t>Responsive layout for mobile and desktop</t>
-  </si>
-  <si>
-    <t>Loading indicators while fetching data</t>
-  </si>
-  <si>
-    <t>Persist selected filters during session</t>
-  </si>
-  <si>
-    <t>Final UI polish and usability improvements</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
       <c r="B6" s="2">
         <v>4.0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
@@ -546,16 +549,16 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>7.0</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="E9" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="3">
         <v>3.0</v>
       </c>
       <c r="F9" s="2"/>
@@ -564,13 +567,13 @@
       <c r="B10" s="2">
         <v>8.0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E10" s="3">
         <v>3.0</v>
       </c>
       <c r="F10" s="2"/>
@@ -585,8 +588,8 @@
       <c r="D11" s="2">
         <v>3.0</v>
       </c>
-      <c r="E11" s="2">
-        <v>3.0</v>
+      <c r="E11" s="3">
+        <v>5.0</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -613,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E13" s="3">
         <v>5.0</v>
@@ -624,14 +627,14 @@
       <c r="B14" s="2">
         <v>12.0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3">
-        <v>2.0</v>
+      <c r="D14" s="2">
+        <v>5.0</v>
       </c>
       <c r="E14" s="3">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -643,7 +646,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E15" s="3">
         <v>6.0</v>
@@ -658,7 +661,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="3">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="E16" s="3">
         <v>6.0</v>
@@ -672,8 +675,8 @@
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="2">
-        <v>3.0</v>
+      <c r="D17" s="3">
+        <v>8.0</v>
       </c>
       <c r="E17" s="3">
         <v>6.0</v>
@@ -684,14 +687,14 @@
       <c r="B18" s="2">
         <v>16.0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>3.0</v>
       </c>
       <c r="E18" s="3">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -703,7 +706,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" s="3">
         <v>7.0</v>
@@ -718,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E20" s="3">
         <v>7.0</v>
@@ -751,7 +754,7 @@
         <v>3.0</v>
       </c>
       <c r="E22" s="3">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="F22" s="2"/>
     </row>
@@ -872,20 +875,36 @@
         <v>20.0</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="B31" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <f>SUM(D3:D30)</f>
-        <v>118</v>
-      </c>
+      <c r="D34" s="2"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+    </row>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
     <row r="39" ht="14.25" customHeight="1"/>

--- a/documentation/Requirements_Stack.xlsx
+++ b/documentation/Requirements_Stack.xlsx
@@ -3,15 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="EKCGvMFJEgGuiXy3L52E0gJchK2WjG5O9T+xn58DVEM="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -214,6 +209,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,7 +424,6 @@
     <col customWidth="1" min="4" max="4" width="13.57"/>
     <col customWidth="1" min="5" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="10.71"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -459,7 +457,7 @@
       <c r="E3" s="2">
         <v>1.0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -476,7 +474,7 @@
       <c r="E4" s="2">
         <v>1.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -493,7 +491,7 @@
       <c r="E5" s="2">
         <v>3.0</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -501,7 +499,7 @@
       <c r="B6" s="2">
         <v>4.0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2">
@@ -510,7 +508,7 @@
       <c r="E6" s="2">
         <v>3.0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -527,7 +525,7 @@
       <c r="E7" s="2">
         <v>3.0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -544,12 +542,12 @@
       <c r="E8" s="2">
         <v>3.0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>7.0</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -558,25 +556,29 @@
       <c r="D9" s="2">
         <v>3.0</v>
       </c>
-      <c r="E9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="B10" s="2">
         <v>8.0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>5.0</v>
       </c>
-      <c r="E10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="2">
@@ -588,10 +590,12 @@
       <c r="D11" s="2">
         <v>3.0</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>5.0</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="B12" s="2">
@@ -603,13 +607,15 @@
       <c r="D12" s="2">
         <v>3.0</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>5.0</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>11.0</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -618,10 +624,12 @@
       <c r="D13" s="2">
         <v>3.0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>5.0</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="2">
@@ -633,22 +641,24 @@
       <c r="D14" s="2">
         <v>5.0</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>5.0</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="B15" s="2">
         <v>13.0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>2.0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>6.0</v>
       </c>
       <c r="F15" s="2"/>
@@ -657,13 +667,13 @@
       <c r="B16" s="2">
         <v>14.0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>5.0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>6.0</v>
       </c>
       <c r="F16" s="2"/>
@@ -672,13 +682,13 @@
       <c r="B17" s="2">
         <v>15.0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>8.0</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>6.0</v>
       </c>
       <c r="F17" s="2"/>
@@ -687,13 +697,13 @@
       <c r="B18" s="2">
         <v>16.0</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>3.0</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>6.0</v>
       </c>
       <c r="F18" s="2"/>
@@ -708,7 +718,7 @@
       <c r="D19" s="2">
         <v>3.0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>7.0</v>
       </c>
       <c r="F19" s="2"/>
@@ -723,13 +733,13 @@
       <c r="D20" s="2">
         <v>5.0</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>7.0</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>19.0</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -738,7 +748,7 @@
       <c r="D21" s="2">
         <v>3.0</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>7.0</v>
       </c>
       <c r="F21" s="2"/>
@@ -753,7 +763,7 @@
       <c r="D22" s="2">
         <v>3.0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>7.0</v>
       </c>
       <c r="F22" s="2"/>
@@ -768,7 +778,7 @@
       <c r="D23" s="2">
         <v>3.0</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>8.0</v>
       </c>
       <c r="F23" s="2"/>
@@ -783,7 +793,7 @@
       <c r="D24" s="2">
         <v>3.0</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>8.0</v>
       </c>
       <c r="F24" s="2"/>
@@ -798,7 +808,7 @@
       <c r="D25" s="2">
         <v>3.0</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>8.0</v>
       </c>
       <c r="F25" s="2"/>
@@ -813,7 +823,7 @@
       <c r="D26" s="2">
         <v>3.0</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>8.0</v>
       </c>
       <c r="F26" s="2"/>
@@ -828,13 +838,13 @@
       <c r="D27" s="2">
         <v>5.0</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>20.0</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>26.0</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -843,12 +853,12 @@
       <c r="D28" s="2">
         <v>2.0</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>20.0</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>27.0</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -857,12 +867,12 @@
       <c r="D29" s="2">
         <v>3.0</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>20.0</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>28.0</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -871,12 +881,12 @@
       <c r="D30" s="2">
         <v>5.0</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>20.0</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>29.0</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -885,7 +895,7 @@
       <c r="D31" s="2">
         <v>8.0</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>20.0</v>
       </c>
       <c r="F31" s="2"/>
@@ -893,17 +903,17 @@
     <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" ht="14.25" customHeight="1"/>
     <row r="36" ht="14.25" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1"/>
@@ -1100,775 +1110,775 @@
     <row r="229" ht="14.25" customHeight="1"/>
     <row r="230" ht="14.25" customHeight="1"/>
     <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/documentation/Requirements_Stack.xlsx
+++ b/documentation/Requirements_Stack.xlsx
@@ -3,10 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="r+2GhJvDIrmBcEG3vFk6KGnm2QULOnPQHKGLLGfXL98="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -209,10 +214,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +560,7 @@
       <c r="E9" s="2">
         <v>3.0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -576,7 +577,7 @@
       <c r="E10" s="2">
         <v>3.0</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -593,7 +594,7 @@
       <c r="E11" s="2">
         <v>5.0</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -610,7 +611,7 @@
       <c r="E12" s="2">
         <v>5.0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -627,7 +628,7 @@
       <c r="E13" s="2">
         <v>5.0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -644,7 +645,7 @@
       <c r="E14" s="2">
         <v>5.0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>2.0</v>
       </c>
     </row>
@@ -661,7 +662,9 @@
       <c r="E15" s="2">
         <v>6.0</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="B16" s="2">
@@ -676,7 +679,9 @@
       <c r="E16" s="2">
         <v>6.0</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="2">
@@ -691,7 +696,9 @@
       <c r="E17" s="2">
         <v>6.0</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="B18" s="2">
@@ -706,7 +713,9 @@
       <c r="E18" s="2">
         <v>6.0</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="B19" s="2">
@@ -721,7 +730,9 @@
       <c r="E19" s="2">
         <v>7.0</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="B20" s="2">
@@ -736,7 +747,9 @@
       <c r="E20" s="2">
         <v>7.0</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="B21" s="2">
@@ -751,7 +764,9 @@
       <c r="E21" s="2">
         <v>7.0</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="B22" s="2">
@@ -766,7 +781,9 @@
       <c r="E22" s="2">
         <v>7.0</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="B23" s="2">
